--- a/aichan/550875954253218228_2021-07-24_12-00-03.xlsx
+++ b/aichan/550875954253218228_2021-07-24_12-00-03.xlsx
@@ -6169,7 +6169,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -21362,7 +21362,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21575,7 +21575,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -24302,7 +24302,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -27856,7 +27856,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -28456,7 +28456,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -31102,7 +31102,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -34139,7 +34139,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34218,7 +34218,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40007,7 +40007,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -43002,7 +43002,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -43462,7 +43462,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -44749,7 +44749,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -44883,7 +44883,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -45096,7 +45096,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -46885,7 +46885,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -47031,7 +47031,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -47742,7 +47742,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -48633,7 +48633,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -49659,7 +49659,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -50459,7 +50459,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50680,7 +50680,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K690" t="inlineStr">
@@ -50826,7 +50826,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -52590,7 +52590,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -53534,7 +53534,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -53818,7 +53818,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K733" t="inlineStr">
@@ -54186,7 +54186,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -54249,7 +54249,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -54467,7 +54467,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
@@ -59709,7 +59709,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
@@ -59780,7 +59780,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -60139,7 +60139,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K820" t="inlineStr">
@@ -60214,7 +60214,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -60436,7 +60436,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -60811,7 +60811,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K829" t="inlineStr">
@@ -60878,7 +60878,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -61375,7 +61375,7 @@
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K837" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
@@ -61517,7 +61517,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
@@ -61588,7 +61588,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
@@ -61872,7 +61872,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K844" t="inlineStr">
@@ -62357,7 +62357,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K851" t="inlineStr">
@@ -72592,7 +72592,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -73580,7 +73580,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1006" t="inlineStr">
@@ -74219,7 +74219,7 @@
       </c>
       <c r="J1015" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1015" t="inlineStr">
@@ -74286,7 +74286,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1016" t="inlineStr">
@@ -74728,7 +74728,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
@@ -74803,7 +74803,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -75103,7 +75103,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -75174,7 +75174,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -75399,7 +75399,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1031" t="inlineStr">
@@ -75780,7 +75780,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -75855,11 +75855,11 @@
         </is>
       </c>
       <c r="I1037" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -76093,7 +76093,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1040" t="inlineStr">
@@ -76799,7 +76799,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -77008,7 +77008,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -77308,7 +77308,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -77746,7 +77746,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -77876,7 +77876,7 @@
         </is>
       </c>
       <c r="I1065" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1065" t="inlineStr">
         <is>
@@ -78114,7 +78114,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -81384,7 +81384,7 @@
       </c>
       <c r="J1112" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1112" t="inlineStr">
@@ -81456,7 +81456,7 @@
         </is>
       </c>
       <c r="I1113" t="n">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="J1113" t="inlineStr">
         <is>
@@ -81602,7 +81602,7 @@
         </is>
       </c>
       <c r="I1115" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J1115" t="inlineStr">
         <is>
@@ -81673,7 +81673,7 @@
         </is>
       </c>
       <c r="I1116" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J1116" t="inlineStr">
         <is>
@@ -81819,7 +81819,7 @@
         </is>
       </c>
       <c r="I1118" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J1118" t="inlineStr">
         <is>
@@ -81898,7 +81898,7 @@
       </c>
       <c r="J1119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1119" t="inlineStr">
@@ -81969,7 +81969,7 @@
       </c>
       <c r="J1120" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1120" t="inlineStr">
@@ -82044,7 +82044,7 @@
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1121" t="inlineStr">
@@ -82119,7 +82119,7 @@
       </c>
       <c r="J1122" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1122" t="inlineStr">
@@ -82411,7 +82411,7 @@
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1126" t="inlineStr">
@@ -82708,7 +82708,7 @@
         </is>
       </c>
       <c r="I1130" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J1130" t="inlineStr">
         <is>

--- a/aichan/550875954253218228_2021-07-24_12-00-03.xlsx
+++ b/aichan/550875954253218228_2021-07-24_12-00-03.xlsx
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
@@ -37959,7 +37959,7 @@
         </is>
       </c>
       <c r="I521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J521" t="inlineStr">
         <is>
@@ -58844,7 +58844,7 @@
         </is>
       </c>
       <c r="I805" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J805" t="inlineStr">
         <is>
@@ -68565,7 +68565,7 @@
         </is>
       </c>
       <c r="I939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J939" t="inlineStr">
         <is>
@@ -70754,7 +70754,7 @@
         </is>
       </c>
       <c r="I969" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J969" t="inlineStr">
         <is>
@@ -86762,7 +86762,7 @@
         </is>
       </c>
       <c r="I1190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1190" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
         </is>
       </c>
       <c r="I1201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1201" t="inlineStr">
         <is>
@@ -87825,7 +87825,7 @@
         </is>
       </c>
       <c r="I1205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1205" t="inlineStr">
         <is>
@@ -90021,7 +90021,7 @@
         </is>
       </c>
       <c r="I1235" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J1235" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="I1318" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J1318" t="inlineStr">
         <is>
